--- a/biology/Médecine/Concentration_prédite_sans_effet/Concentration_prédite_sans_effet.xlsx
+++ b/biology/Médecine/Concentration_prédite_sans_effet/Concentration_prédite_sans_effet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Concentration_pr%C3%A9dite_sans_effet</t>
+          <t>Concentration_prédite_sans_effet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La concentration prédite sans effet, également connue sous son nom anglais predicted no-effect concentration ou PNEC, est en chimie, toxicologie et écotoxicologie, une méthode de définition des seuils en-deçà desquels une substance est considérée comme non-dangereuse pour les organismes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Concentration_pr%C3%A9dite_sans_effet</t>
+          <t>Concentration_prédite_sans_effet</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La concentration prédite sans effet est une estimation du seuil en-dessous duquel une substance est considérée comme inoffensive pour l'environnement. Elle définit la toxicité de cette substance pour tout environnement[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La concentration prédite sans effet est une estimation du seuil en-dessous duquel une substance est considérée comme inoffensive pour l'environnement. Elle définit la toxicité de cette substance pour tout environnement,.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Concentration_pr%C3%A9dite_sans_effet</t>
+          <t>Concentration_prédite_sans_effet</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Méthode de calcul</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La définition d'une concentration prédite sans effet nécessite un recueil de données d'écotoxicité incluant des espèces appartenant à différents niveaux de la chaîne trophique. Deux cas sont envisageables : celui où de nombreuses données sont disponibles et celui où la substance n'a été évaluée qu'auprès de peu d'espèces. Dans le cas où peu de données sont disponibles, c'est l'espèce la plus sensible à la substance évaluée qui détermine le seuil limite. Dans le cas où de nombreuses données ont été rassemblées, la concentration de référence est celle qui permet de protéger 95 % des espèces. Elle est nommée « HC5 ». Dans tous les cas, un facteur d'extrapolation est appliqué à la valeur retenue. Ce coefficient d'extrapolation varie suivant les règlementations nationales[3],[1],[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La définition d'une concentration prédite sans effet nécessite un recueil de données d'écotoxicité incluant des espèces appartenant à différents niveaux de la chaîne trophique. Deux cas sont envisageables : celui où de nombreuses données sont disponibles et celui où la substance n'a été évaluée qu'auprès de peu d'espèces. Dans le cas où peu de données sont disponibles, c'est l'espèce la plus sensible à la substance évaluée qui détermine le seuil limite. Dans le cas où de nombreuses données ont été rassemblées, la concentration de référence est celle qui permet de protéger 95 % des espèces. Elle est nommée « HC5 ». Dans tous les cas, un facteur d'extrapolation est appliqué à la valeur retenue. Ce coefficient d'extrapolation varie suivant les règlementations nationales.
 </t>
         </is>
       </c>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Concentration_pr%C3%A9dite_sans_effet</t>
+          <t>Concentration_prédite_sans_effet</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,9 +589,11 @@
           <t>Critiques de la méthodologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux principales critiques sont émises vis-à-vis de la méthodologie de définition des concentrations prédites sans effet. La première tient, comme expliqué ci-dessus, à l'arbitraire du coefficient d'extrapolation fixé par les réglementations. La seconde critique porte sur l'aspect réducteur de ne considérer chaque substance qu'individuellement, alors qu'elles sont présentes concomitamment dans la nature. L'effet cocktail peut engendrer des effets soit additifs, soit synergiques, soit antagonistes, qui ne sont pas mesurables par la méthodologie unitaire des concentrations prédites sans effet[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux principales critiques sont émises vis-à-vis de la méthodologie de définition des concentrations prédites sans effet. La première tient, comme expliqué ci-dessus, à l'arbitraire du coefficient d'extrapolation fixé par les réglementations. La seconde critique porte sur l'aspect réducteur de ne considérer chaque substance qu'individuellement, alors qu'elles sont présentes concomitamment dans la nature. L'effet cocktail peut engendrer des effets soit additifs, soit synergiques, soit antagonistes, qui ne sont pas mesurables par la méthodologie unitaire des concentrations prédites sans effet.
 </t>
         </is>
       </c>
